--- a/project_1/filename.xlsx
+++ b/project_1/filename.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dtypes</t>
+          <t>types</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -672,35 +672,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>median</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12522</v>
+        <v>4254525</v>
       </c>
       <c r="C5" t="n">
-        <v>12447</v>
+        <v>5189278.5</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -712,53 +712,283 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>stdev</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1958644.408111783</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37288859.95540194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.157798668804645</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.39745155295261</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.695696033113271</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1544872467312</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.78113838825023</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.815592216670801</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.598527388772363</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5211214518397487</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.133273259740136</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6138858654960675</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.169027357983223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12522</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12447</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>7555146</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>115196778</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>105</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>61</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K8" t="n">
         <v>9</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L8" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N8" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nzero</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>367</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>980</v>
+      </c>
+      <c r="L9" t="n">
+        <v>985</v>
+      </c>
+      <c r="M9" t="n">
+        <v>847</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nques</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nmissing</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
